--- a/Assets/Data/Excel/datos taller de software-1.xlsx
+++ b/Assets/Data/Excel/datos taller de software-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastian\OneDrive - utem.cl\Documentos\Bastian\BortizpDEV\Personal\dashboard\Dashboard-Interactivo\Assets\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastian\OneDrive - utem.cl\Escritorio\dashboard\Dashboard-Interactivo\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9901416-FF45-4868-B05D-38D0ABD80E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F08C4F-619B-481D-A51E-82AE8B165B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9816E83-7EF8-4E2F-BD7D-3B71B40D5A26}"/>
   </bookViews>
@@ -444,9 +444,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -480,9 +479,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,18 +819,18 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="4"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="8" width="11.42578125" style="4"/>
+    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="8" width="11.42578125" style="3"/>
     <col min="9" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -839,7 +838,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -851,13 +850,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -871,7 +870,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>45296</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -883,13 +882,13 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>45</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>F2*G2</f>
         <v>90</v>
       </c>
@@ -904,7 +903,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>45299</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -916,14 +915,14 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>25.5</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H66" si="0">F3*G3</f>
+      <c r="H3" s="3">
+        <f>F3*G3</f>
         <v>25.5</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -937,7 +936,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>45303</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -949,14 +948,14 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>45</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
+      <c r="H4" s="3">
+        <f t="shared" ref="H3:H66" si="0">F4*G4</f>
         <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -970,7 +969,7 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -982,13 +981,13 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>85</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -1003,7 +1002,7 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>45311</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1015,13 +1014,13 @@
       <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>120</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1036,7 +1035,7 @@
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>45323</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1048,13 +1047,13 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>60</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1069,7 +1068,7 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>45325</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1081,13 +1080,13 @@
       <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="4">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
         <f>F8*G8</f>
         <v>60</v>
       </c>
@@ -1102,7 +1101,7 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>45332</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1114,13 +1113,13 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>45</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -1135,7 +1134,7 @@
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1147,13 +1146,13 @@
       <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>120</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>F10*G10</f>
         <v>240</v>
       </c>
@@ -1168,7 +1167,7 @@
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>45350</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1180,13 +1179,13 @@
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>25.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>F11*G11</f>
         <v>76.5</v>
       </c>
@@ -1201,7 +1200,7 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1213,13 +1212,13 @@
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>85</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -1234,7 +1233,7 @@
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>45361</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1246,13 +1245,13 @@
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>60</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1267,7 +1266,7 @@
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>45369</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1279,13 +1278,13 @@
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="4">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="3">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1300,7 +1299,7 @@
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>45376</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1312,13 +1311,13 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>45</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -1333,7 +1332,7 @@
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>45381</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1345,13 +1344,13 @@
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>120</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1366,7 +1365,7 @@
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>45383</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1378,13 +1377,13 @@
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>25.5</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
@@ -1399,7 +1398,7 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>45390</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1411,13 +1410,13 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>85</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -1432,7 +1431,7 @@
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>45397</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1444,13 +1443,13 @@
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>60</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1465,7 +1464,7 @@
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>45402</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1477,13 +1476,13 @@
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" s="4">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -1498,7 +1497,7 @@
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>45407</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1510,13 +1509,13 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -1531,7 +1530,7 @@
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>45413</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1543,13 +1542,13 @@
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>25.5</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -1564,7 +1563,7 @@
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>45420</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1576,13 +1575,13 @@
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>85</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -1597,7 +1596,7 @@
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>45427</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1609,13 +1608,13 @@
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>60</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1630,7 +1629,7 @@
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>45432</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1642,13 +1641,13 @@
       <c r="E25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="4">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G25" s="3">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1663,7 +1662,7 @@
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>45437</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1675,13 +1674,13 @@
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>45</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>45444</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1708,13 +1707,13 @@
       <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>120</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -1729,7 +1728,7 @@
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>45451</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1741,13 +1740,13 @@
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>85</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -1762,7 +1761,7 @@
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>45458</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1774,13 +1773,13 @@
       <c r="E29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>60</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1795,7 +1794,7 @@
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1807,13 +1806,13 @@
       <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>5</v>
       </c>
-      <c r="G30" s="4">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="3">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1828,7 +1827,7 @@
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>45468</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1840,13 +1839,13 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>45</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -1861,7 +1860,7 @@
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>45474</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1873,13 +1872,13 @@
       <c r="E32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
         <v>25.5</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
@@ -1894,7 +1893,7 @@
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>45481</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1906,13 +1905,13 @@
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>85</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>45488</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1939,13 +1938,13 @@
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
         <v>60</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1960,7 +1959,7 @@
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>45493</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1972,13 +1971,13 @@
       <c r="E35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="4">
-        <v>15</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="3">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -1993,7 +1992,7 @@
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>45498</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2005,13 +2004,13 @@
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>45</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>45505</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2038,13 +2037,13 @@
       <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
         <v>120</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>45512</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2071,13 +2070,13 @@
       <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
         <v>85</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2092,7 +2091,7 @@
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>45519</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2104,13 +2103,13 @@
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>60</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2125,7 +2124,7 @@
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>45524</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2137,13 +2136,13 @@
       <c r="E40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>5</v>
       </c>
-      <c r="G40" s="4">
-        <v>15</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="3">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2158,7 +2157,7 @@
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>45529</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2170,13 +2169,13 @@
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
         <v>45</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2191,7 +2190,7 @@
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>45536</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2203,13 +2202,13 @@
       <c r="E42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>2</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>25.5</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -2224,7 +2223,7 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>45543</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2236,13 +2235,13 @@
       <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>3</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>85</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
@@ -2257,7 +2256,7 @@
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>45550</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2269,13 +2268,13 @@
       <c r="E44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
         <v>60</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2290,7 +2289,7 @@
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>45555</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2302,13 +2301,13 @@
       <c r="E45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>4</v>
       </c>
-      <c r="G45" s="4">
-        <v>15</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="3">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2323,7 +2322,7 @@
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>45560</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2335,13 +2334,13 @@
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
         <v>45</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2356,7 +2355,7 @@
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>45566</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2368,13 +2367,13 @@
       <c r="E47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>2</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>120</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -2389,7 +2388,7 @@
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>45573</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2401,13 +2400,13 @@
       <c r="E48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
         <v>85</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2422,7 +2421,7 @@
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>45580</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2434,13 +2433,13 @@
       <c r="E49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>60</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2455,7 +2454,7 @@
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>45585</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2467,13 +2466,13 @@
       <c r="E50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>5</v>
       </c>
-      <c r="G50" s="4">
-        <v>15</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="3">
+        <v>15</v>
+      </c>
+      <c r="H50" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2488,7 +2487,7 @@
       <c r="A51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>45590</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2500,13 +2499,13 @@
       <c r="E51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
         <v>45</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2521,7 +2520,7 @@
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>45597</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2533,13 +2532,13 @@
       <c r="E52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
         <v>25.5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
@@ -2554,7 +2553,7 @@
       <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>45604</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2566,13 +2565,13 @@
       <c r="E53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>2</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>85</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -2587,7 +2586,7 @@
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <v>45611</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2599,13 +2598,13 @@
       <c r="E54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
         <v>60</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2620,7 +2619,7 @@
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>45616</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2632,13 +2631,13 @@
       <c r="E55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>3</v>
       </c>
-      <c r="G55" s="4">
-        <v>15</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="G55" s="3">
+        <v>15</v>
+      </c>
+      <c r="H55" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2653,7 +2652,7 @@
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>45621</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2665,13 +2664,13 @@
       <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>2</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>45</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -2686,7 +2685,7 @@
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>45627</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2698,13 +2697,13 @@
       <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
         <v>120</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2719,7 +2718,7 @@
       <c r="A58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>45634</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2731,13 +2730,13 @@
       <c r="E58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
         <v>85</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2752,7 +2751,7 @@
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>45641</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2764,13 +2763,13 @@
       <c r="E59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>2</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>60</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2785,7 +2784,7 @@
       <c r="A60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>45646</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2797,13 +2796,13 @@
       <c r="E60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>5</v>
       </c>
-      <c r="G60" s="4">
-        <v>15</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="G60" s="3">
+        <v>15</v>
+      </c>
+      <c r="H60" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2818,7 +2817,7 @@
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>45651</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2830,13 +2829,13 @@
       <c r="E61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
         <v>45</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2851,7 +2850,7 @@
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>45298</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2863,13 +2862,13 @@
       <c r="E62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4">
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
         <v>120</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2884,7 +2883,7 @@
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>45305</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2896,13 +2895,13 @@
       <c r="E63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
         <v>60</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2917,7 +2916,7 @@
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>45312</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2929,13 +2928,13 @@
       <c r="E64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>3</v>
       </c>
-      <c r="G64" s="4">
-        <v>15</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G64" s="3">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2950,7 +2949,7 @@
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>45319</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2962,13 +2961,13 @@
       <c r="E65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
         <v>85</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2983,7 +2982,7 @@
       <c r="A66" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>45327</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2995,13 +2994,13 @@
       <c r="E66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>2</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>45</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -3016,7 +3015,7 @@
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>45334</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3028,13 +3027,13 @@
       <c r="E67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
         <v>25.5</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <f t="shared" ref="H67:H101" si="1">F67*G67</f>
         <v>25.5</v>
       </c>
@@ -3049,7 +3048,7 @@
       <c r="A68" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <v>45341</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3061,13 +3060,13 @@
       <c r="E68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
         <v>120</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -3082,7 +3081,7 @@
       <c r="A69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>45348</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3094,13 +3093,13 @@
       <c r="E69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>2</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>60</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -3115,7 +3114,7 @@
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="4">
         <v>45354</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3127,13 +3126,13 @@
       <c r="E70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>5</v>
       </c>
-      <c r="G70" s="4">
-        <v>15</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="G70" s="3">
+        <v>15</v>
+      </c>
+      <c r="H70" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3148,7 +3147,7 @@
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <v>45361</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3160,13 +3159,13 @@
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="4">
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
         <v>45</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -3181,7 +3180,7 @@
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4">
         <v>45368</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3193,13 +3192,13 @@
       <c r="E72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>2</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <v>25.5</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>45375</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3226,13 +3225,13 @@
       <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>3</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="3">
         <v>85</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="3">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="A74" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="4">
         <v>45382</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3259,13 +3258,13 @@
       <c r="E74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
         <v>60</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3280,7 +3279,7 @@
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>45389</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3292,13 +3291,13 @@
       <c r="E75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>4</v>
       </c>
-      <c r="G75" s="4">
-        <v>15</v>
-      </c>
-      <c r="H75" s="4">
+      <c r="G75" s="3">
+        <v>15</v>
+      </c>
+      <c r="H75" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="A76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <v>45396</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3325,13 +3324,13 @@
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4">
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
         <v>45</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -3346,7 +3345,7 @@
       <c r="A77" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <v>45403</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3358,13 +3357,13 @@
       <c r="E77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>2</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="3">
         <v>120</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4">
         <v>45410</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3391,13 +3390,13 @@
       <c r="E78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="4">
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
         <v>85</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3412,7 +3411,7 @@
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <v>45417</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3424,13 +3423,13 @@
       <c r="E79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>2</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="3">
         <v>60</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -3445,7 +3444,7 @@
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="4">
         <v>45424</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3457,13 +3456,13 @@
       <c r="E80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>5</v>
       </c>
-      <c r="G80" s="4">
-        <v>15</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="G80" s="3">
+        <v>15</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3478,7 +3477,7 @@
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <v>45431</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3490,13 +3489,13 @@
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="4">
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
         <v>45</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4">
         <v>45438</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3523,13 +3522,13 @@
       <c r="E82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
         <v>25.5</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
@@ -3544,7 +3543,7 @@
       <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4">
         <v>45445</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3556,13 +3555,13 @@
       <c r="E83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>2</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="3">
         <v>85</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="3">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="4">
         <v>45452</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3589,13 +3588,13 @@
       <c r="E84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="4">
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
         <v>60</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3610,7 +3609,7 @@
       <c r="A85" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="4">
         <v>45459</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3622,13 +3621,13 @@
       <c r="E85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>3</v>
       </c>
-      <c r="G85" s="4">
-        <v>15</v>
-      </c>
-      <c r="H85" s="4">
+      <c r="G85" s="3">
+        <v>15</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="4">
         <v>45466</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3655,13 +3654,13 @@
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>2</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="3">
         <v>45</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3676,7 +3675,7 @@
       <c r="A87" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <v>45473</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3688,13 +3687,13 @@
       <c r="E87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3">
         <v>120</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4">
         <v>45480</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3721,13 +3720,13 @@
       <c r="E88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="4">
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
         <v>85</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3742,7 +3741,7 @@
       <c r="A89" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <v>45487</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3754,13 +3753,13 @@
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>2</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="3">
         <v>60</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -3775,7 +3774,7 @@
       <c r="A90" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4">
         <v>45494</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3787,13 +3786,13 @@
       <c r="E90" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>5</v>
       </c>
-      <c r="G90" s="4">
-        <v>15</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G90" s="3">
+        <v>15</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3808,7 +3807,7 @@
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>45501</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3820,13 +3819,13 @@
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="4">
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
         <v>45</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -3841,7 +3840,7 @@
       <c r="A92" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4">
         <v>45508</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3853,13 +3852,13 @@
       <c r="E92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>2</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="3">
         <v>25.5</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -3874,7 +3873,7 @@
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4">
         <v>45515</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3886,13 +3885,13 @@
       <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>3</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="3">
         <v>85</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="3">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="4">
         <v>45522</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3919,13 +3918,13 @@
       <c r="E94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
         <v>60</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3940,7 +3939,7 @@
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <v>45529</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3952,13 +3951,13 @@
       <c r="E95" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>4</v>
       </c>
-      <c r="G95" s="4">
-        <v>15</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="G95" s="3">
+        <v>15</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3973,7 +3972,7 @@
       <c r="A96" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4">
         <v>45536</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3985,13 +3984,13 @@
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="4">
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
         <v>45</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -4006,7 +4005,7 @@
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <v>45543</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -4018,13 +4017,13 @@
       <c r="E97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>2</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="3">
         <v>120</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="3">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
@@ -4039,7 +4038,7 @@
       <c r="A98" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4">
         <v>45550</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4051,13 +4050,13 @@
       <c r="E98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="4">
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
         <v>85</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -4072,7 +4071,7 @@
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4">
         <v>45557</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -4084,13 +4083,13 @@
       <c r="E99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>2</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="3">
         <v>60</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -4105,7 +4104,7 @@
       <c r="A100" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4">
         <v>45564</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4117,13 +4116,13 @@
       <c r="E100" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>5</v>
       </c>
-      <c r="G100" s="4">
-        <v>15</v>
-      </c>
-      <c r="H100" s="4">
+      <c r="G100" s="3">
+        <v>15</v>
+      </c>
+      <c r="H100" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -4138,7 +4137,7 @@
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <v>45571</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4150,13 +4149,13 @@
       <c r="E101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="4">
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
         <v>45</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
